--- a/constrained_optimization/atus.xlsx
+++ b/constrained_optimization/atus.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalliday/Google Drive/github/bfh-textbook/constrained_optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietbrookesgray/Dropbox/My Mac (Harriets-Air.fios-router.home)/Documents/GitHub/bfh-textbook/constrained_optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDABB75-FDA0-2E46-ACF7-A9CD4289B504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A691B0-5B3E-C74C-BE15-344BDCFC9930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16000" xr2:uid="{890B4481-F0C2-1E47-9FFB-143ACFC6D781}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,9 +44,6 @@
     <t>Women</t>
   </si>
   <si>
-    <t>Personal Care</t>
-  </si>
-  <si>
     <t>Sleeping</t>
   </si>
   <si>
@@ -54,22 +59,25 @@
     <t>Education</t>
   </si>
   <si>
-    <t>Civil &amp; Religious</t>
-  </si>
-  <si>
-    <t>Leisure &amp; Sports</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Eating &amp; Drinking</t>
-  </si>
-  <si>
     <t>Care work</t>
   </si>
   <si>
     <t>Paid Work</t>
+  </si>
+  <si>
+    <t>Personal care</t>
+  </si>
+  <si>
+    <t>Eating &amp; drinking</t>
+  </si>
+  <si>
+    <t>Civil &amp; religious</t>
+  </si>
+  <si>
+    <t>Leisure &amp; sports</t>
   </si>
 </sst>
 </file>
@@ -424,10 +432,13 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -442,7 +453,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <f>8.88-B3</f>
@@ -455,7 +466,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>8.24</v>
@@ -477,7 +488,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1.21</v>
@@ -488,7 +499,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.62</v>
@@ -499,7 +510,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1.03</v>
@@ -510,7 +521,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>6.43</v>
@@ -521,7 +532,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0.08</v>
@@ -532,7 +543,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.27</v>
@@ -543,7 +554,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>3.97</v>
@@ -554,7 +565,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>0.06</v>
@@ -565,7 +576,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0.23</v>

--- a/constrained_optimization/atus.xlsx
+++ b/constrained_optimization/atus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietbrookesgray/Dropbox/My Mac (Harriets-Air.fios-router.home)/Documents/GitHub/bfh-textbook/constrained_optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A691B0-5B3E-C74C-BE15-344BDCFC9930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D80FDE-F11E-0B4C-8E30-5CE344412FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16000" xr2:uid="{890B4481-F0C2-1E47-9FFB-143ACFC6D781}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Care work</t>
   </si>
   <si>
-    <t>Paid Work</t>
-  </si>
-  <si>
     <t>Personal care</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Leisure &amp; sports</t>
+  </si>
+  <si>
+    <t>Paid work</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <f>8.88-B3</f>
@@ -477,7 +477,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1.23</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>6.43</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.27</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>3.97</v>

--- a/constrained_optimization/atus.xlsx
+++ b/constrained_optimization/atus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietbrookesgray/Dropbox/My Mac (Harriets-Air.fios-router.home)/Documents/GitHub/bfh-textbook/constrained_optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D80FDE-F11E-0B4C-8E30-5CE344412FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2846AA-0883-3A4A-B988-A7D82AA2E41A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16000" xr2:uid="{890B4481-F0C2-1E47-9FFB-143ACFC6D781}"/>
   </bookViews>
@@ -68,16 +68,16 @@
     <t>Personal care</t>
   </si>
   <si>
-    <t>Eating &amp; drinking</t>
-  </si>
-  <si>
-    <t>Civil &amp; religious</t>
-  </si>
-  <si>
-    <t>Leisure &amp; sports</t>
-  </si>
-  <si>
     <t>Paid work</t>
+  </si>
+  <si>
+    <t>Eating and drinking</t>
+  </si>
+  <si>
+    <t>Civil and religious</t>
+  </si>
+  <si>
+    <t>Leisure and sports</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1.23</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>6.43</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0.27</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>3.97</v>
